--- a/DKS-API/Resources/Template/TempDevDtrFgtResultReport_Dev.xlsx
+++ b/DKS-API/Resources/Template/TempDevDtrFgtResultReport_Dev.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>&amp;=result.Article</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -141,6 +141,14 @@
   </si>
   <si>
     <t>&amp;=result.Upusr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dev Season</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=result.DevSeason</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -523,62 +531,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
-    <col min="10" max="10" width="54.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
     <col min="11" max="11" width="19.5703125" customWidth="1"/>
     <col min="12" max="12" width="23" customWidth="1"/>
     <col min="13" max="13" width="22.7109375" customWidth="1"/>
     <col min="14" max="14" width="20.42578125" style="6" customWidth="1"/>
     <col min="15" max="15" width="20.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="82.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>14</v>
@@ -595,37 +604,40 @@
       <c r="O1" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>3</v>
@@ -642,9 +654,12 @@
       <c r="O2" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="P2" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1"/>
+  <autoFilter ref="A1:P1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/DKS-API/Resources/Template/TempDevDtrFgtResultReport_Dev.xlsx
+++ b/DKS-API/Resources/Template/TempDevDtrFgtResultReport_Dev.xlsx
@@ -64,10 +64,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Kind</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Test Result</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -149,6 +145,10 @@
   </si>
   <si>
     <t>&amp;=result.DevSeason</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +535,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -560,7 +560,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
@@ -581,36 +581,36 @@
         <v>9</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -622,40 +622,40 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
